--- a/reservas_tabular.xlsx
+++ b/reservas_tabular.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,12 +454,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Foro estudiantil de desarrollo</t>
+          <t>Foro estudíantil de desarrollo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Matutino</t>
+          <t>Vespertino</t>
         </is>
       </c>
     </row>
@@ -474,12 +474,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>jkdfsghfla fjsad fhaf</t>
+          <t>Lanzamiento del nuevo lenguaje</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Vespertino</t>
+          <t>Matutino</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Howlet Packer</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Presentación del nuevo Hardware</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
         </is>
       </c>
     </row>
